--- a/medicine/Pharmacie/Dose_létale/Dose_létale.xlsx
+++ b/medicine/Pharmacie/Dose_létale/Dose_létale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dose_l%C3%A9tale</t>
+          <t>Dose_létale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dose létale (DL) est une indication de la létalité d'une substance ou d'un type donné de radiation ou la radiorésistance. Puisque la résistance est variable d'un individu à l'autre, la dose létale représente la dose à laquelle un pourcentage donné d'une population donnée meurt. Cette dose est habituellement exprimée en unités de masse de substance par masse corporelle, c’est-à-dire en g/kg.
 La dose létale est souvent utilisée pour décrire la puissance des venins chez les animaux comme pour les serpents.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dose_l%C3%A9tale</t>
+          <t>Dose_létale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Doses létales de quelques produits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Doses létales de produits pouvant entraîner la mort d'un homme de 70 kg[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Doses létales de produits pouvant entraîner la mort d'un homme de 70 kg :
 alcool à 90° : 500 g ;
 sel de table : 225 g ;
 ibuprofène : 30 g ;
